--- a/Crossword_examen_1.xlsx
+++ b/Crossword_examen_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/primer_parcial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697FF56D-559B-AB45-95B1-3BC90D050CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8FCC5D8-E6D5-D44C-82F6-3EAFC79B6071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>HORIZONTAL</t>
   </si>
@@ -656,7 +656,7 @@
   <dimension ref="B2:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -998,13 +998,21 @@
       <c r="AF8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
+      <c r="AG8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
